--- a/Exc2/FURPS_task.xlsx
+++ b/Exc2/FURPS_task.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Яндекс Практикум\Спринт 9\architecture-sprint-9\Ext2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Яндекс Практикум\Спринт 9\architecture-sprint-9\Exc2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E8C2DB-24D4-43D9-9049-F48B8BEFCAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18818A5D-FE19-45F6-8BC0-3CC58406D4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Код</t>
   </si>
@@ -261,6 +261,33 @@
   </si>
   <si>
     <t>+R3</t>
+  </si>
+  <si>
+    <t>+R4</t>
+  </si>
+  <si>
+    <t>Внедрение Apache Kafka</t>
+  </si>
+  <si>
+    <t>Переиспользование технического стэка</t>
+  </si>
+  <si>
+    <t>Осуществление рефакторинга в целевом варианте</t>
+  </si>
+  <si>
+    <t>Необходимо использовать Event Driven подход в рамках применения Apache Kafka для улучшения надежности, производительности и отзывчивости системы</t>
+  </si>
+  <si>
+    <t>Необходимо переиспользовать технический стэк который уже применяется в банке (MS SQL, Oracle) а так же языки программирования (Java, .NET, Python)</t>
+  </si>
+  <si>
+    <t>В целевом варианте необходимо перейти на микросервисную архитектуру для реализации возможности горизонтального масштабирования и геолоцирования.</t>
+  </si>
+  <si>
+    <t>+R5</t>
+  </si>
+  <si>
+    <t>+R6</t>
   </si>
 </sst>
 </file>
@@ -294,7 +321,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,6 +346,12 @@
         <bgColor theme="4" tint="-0.249977111117893"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -454,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -475,33 +508,36 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -514,45 +550,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -782,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="12.75"/>
@@ -812,13 +813,13 @@
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="2:4" ht="25.5">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -829,21 +830,21 @@
       </c>
     </row>
     <row r="6" spans="2:4" ht="63.75">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="30" customHeight="1">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -851,10 +852,10 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="30" customHeight="1">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -862,10 +863,10 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="30" customHeight="1">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -873,50 +874,50 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="51">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="2:4" ht="51">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="2:4" ht="25.5">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="15.75">
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="2:4" ht="30" customHeight="1">
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="2:4" ht="30" customHeight="1">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -927,7 +928,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" ht="30" customHeight="1">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -941,52 +942,52 @@
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="18"/>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="23" customFormat="1" ht="38.25">
-      <c r="B19" s="24" t="s">
+    <row r="19" spans="1:4" ht="38.25">
+      <c r="B19" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="27" customFormat="1" ht="25.5">
-      <c r="B20" s="30" t="s">
+    <row r="20" spans="1:4" ht="25.5">
+      <c r="B20" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -994,55 +995,55 @@
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="20"/>
+      <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:4" ht="30" customHeight="1">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" customHeight="1">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" customHeight="1">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="9"/>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" spans="1:4" ht="38.25">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" customHeight="1">
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1053,17 +1054,17 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" customHeight="1">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="9"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:4" ht="35.25" customHeight="1">
       <c r="A29" s="7"/>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1075,7 +1076,7 @@
     </row>
     <row r="30" spans="1:4" ht="33" customHeight="1">
       <c r="A30" s="7"/>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1086,14 +1087,47 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="25.5">
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="4" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="51">
+      <c r="B32" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="51">
+      <c r="B33" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="51">
+      <c r="B34" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
